--- a/src/test/data/anno_CommentOption_template.xlsx
+++ b/src/test/data/anno_CommentOption_template.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793F8FF6-0629-4947-B628-1666A8749078}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7831F75F-8509-4061-BB39-8A65C52A50BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33195" yWindow="1410" windowWidth="21615" windowHeight="13860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35325" yWindow="4275" windowWidth="21615" windowHeight="11655" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="通常のテスト" sheetId="2" r:id="rId1"/>
     <sheet name="表示設定" sheetId="1" r:id="rId2"/>
     <sheet name="サイズ指定" sheetId="3" r:id="rId3"/>
     <sheet name="空のとき削除" sheetId="4" r:id="rId4"/>
+    <sheet name="独自実装" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -110,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>アノテーション「@XlsCommentOption」のテスト</t>
     <phoneticPr fontId="2"/>
@@ -262,6 +263,51 @@
     <t>コメントあり、セルの値なし</t>
     <rPh sb="10" eb="11">
       <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>独自実装の処理</t>
+    <rPh sb="0" eb="2">
+      <t>ドクジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>標準の処理</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コメント処理部分を独自実装に切り替える。</t>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ドクジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -709,7 +755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B55E6E6D-8922-4FCD-A193-DEDDA4F40ECC}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -948,4 +994,62 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D76E93B-38D9-4B53-9D9E-FF756B41FB8E}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" activeCellId="1" sqref="D5 D7:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="D7:D8"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>